--- a/ProductMatch/SEN/ProductMatch_2014.xlsx
+++ b/ProductMatch/SEN/ProductMatch_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\SEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F3706-34EB-415D-B485-E9B3D79870CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A642CDE2-0E7F-44BD-B732-6ABB0AFCB7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83A60A81-E5D5-4977-818B-B205F618297C}"/>
   </bookViews>
@@ -35,18 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
     <t>A00</t>
   </si>
   <si>
@@ -379,14 +367,34 @@
   </si>
   <si>
     <t>CORRECTION TERRITORIALE ET  CAF-FAB</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -414,8 +422,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,198 +741,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8C492A-8C53-4905-9B3F-1111A5C13C63}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>69</v>
@@ -931,44 +940,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>68</v>
@@ -976,178 +985,178 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
